--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H2">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I2">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J2">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N2">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O2">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P2">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q2">
-        <v>846.3344031850854</v>
+        <v>1283.149306423948</v>
       </c>
       <c r="R2">
-        <v>7617.009628665769</v>
+        <v>11548.34375781553</v>
       </c>
       <c r="S2">
-        <v>0.01358634834816138</v>
+        <v>0.02298927731053152</v>
       </c>
       <c r="T2">
-        <v>0.01358634834816138</v>
+        <v>0.02298927731053151</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H3">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I3">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J3">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>143.250945</v>
       </c>
       <c r="O3">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P3">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q3">
-        <v>1170.134759579342</v>
+        <v>1593.408927340771</v>
       </c>
       <c r="R3">
-        <v>10531.21283621407</v>
+        <v>14340.68034606695</v>
       </c>
       <c r="S3">
-        <v>0.01878436986385899</v>
+        <v>0.02854797919176111</v>
       </c>
       <c r="T3">
-        <v>0.01878436986385899</v>
+        <v>0.02854797919176111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H4">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I4">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J4">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N4">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O4">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P4">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q4">
-        <v>299.6732108424583</v>
+        <v>621.7115154071582</v>
       </c>
       <c r="R4">
-        <v>2697.058897582125</v>
+        <v>5595.403638664425</v>
       </c>
       <c r="S4">
-        <v>0.004810704395089157</v>
+        <v>0.01113876488362742</v>
       </c>
       <c r="T4">
-        <v>0.004810704395089157</v>
+        <v>0.01113876488362742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H5">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I5">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J5">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N5">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O5">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P5">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q5">
-        <v>703.0935445431561</v>
+        <v>814.7790020205347</v>
       </c>
       <c r="R5">
-        <v>6327.841900888405</v>
+        <v>7333.011018184812</v>
       </c>
       <c r="S5">
-        <v>0.01128687878166971</v>
+        <v>0.0145978182978961</v>
       </c>
       <c r="T5">
-        <v>0.01128687878166971</v>
+        <v>0.0145978182978961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>330.594292</v>
       </c>
       <c r="I6">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J6">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N6">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O6">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P6">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q6">
-        <v>3805.891925409211</v>
+        <v>4237.408022572521</v>
       </c>
       <c r="R6">
-        <v>34253.0273286829</v>
+        <v>38136.67220315269</v>
       </c>
       <c r="S6">
-        <v>0.06109662242190109</v>
+        <v>0.07591863832298651</v>
       </c>
       <c r="T6">
-        <v>0.06109662242190109</v>
+        <v>0.0759186383229865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>330.594292</v>
       </c>
       <c r="I7">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J7">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>143.250945</v>
       </c>
       <c r="O7">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P7">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q7">
         <v>5261.993860067327</v>
@@ -883,10 +883,10 @@
         <v>47357.94474060594</v>
       </c>
       <c r="S7">
-        <v>0.0844716713862884</v>
+        <v>0.09427541709275888</v>
       </c>
       <c r="T7">
-        <v>0.08447167138628839</v>
+        <v>0.09427541709275887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>330.594292</v>
       </c>
       <c r="I8">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J8">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N8">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O8">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P8">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q8">
-        <v>1347.604267432033</v>
+        <v>2053.108979541934</v>
       </c>
       <c r="R8">
-        <v>12128.4384068883</v>
+        <v>18477.98081587741</v>
       </c>
       <c r="S8">
-        <v>0.02163331768612556</v>
+        <v>0.03678409943654474</v>
       </c>
       <c r="T8">
-        <v>0.02163331768612556</v>
+        <v>0.03678409943654473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>330.594292</v>
       </c>
       <c r="I9">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J9">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N9">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O9">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P9">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q9">
-        <v>3161.750289145395</v>
+        <v>2690.685380493622</v>
       </c>
       <c r="R9">
-        <v>28455.75260230856</v>
+        <v>24216.16842444259</v>
       </c>
       <c r="S9">
-        <v>0.05075610852703939</v>
+        <v>0.04820710423789419</v>
       </c>
       <c r="T9">
-        <v>0.05075610852703938</v>
+        <v>0.04820710423789418</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H10">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I10">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J10">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N10">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O10">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P10">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q10">
-        <v>662.0818464012456</v>
+        <v>534.5365770318415</v>
       </c>
       <c r="R10">
-        <v>5958.73661761121</v>
+        <v>4810.829193286573</v>
       </c>
       <c r="S10">
-        <v>0.0106285111019338</v>
+        <v>0.009576913255913172</v>
       </c>
       <c r="T10">
-        <v>0.0106285111019338</v>
+        <v>0.00957691325591317</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H11">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I11">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J11">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>143.250945</v>
       </c>
       <c r="O11">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P11">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q11">
-        <v>915.3887390669418</v>
+        <v>663.7850712840617</v>
       </c>
       <c r="R11">
-        <v>8238.498651602475</v>
+        <v>5974.065641556555</v>
       </c>
       <c r="S11">
-        <v>0.01469488920235689</v>
+        <v>0.01189256698495101</v>
       </c>
       <c r="T11">
-        <v>0.01469488920235689</v>
+        <v>0.01189256698495101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H12">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I12">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J12">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N12">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O12">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P12">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q12">
-        <v>234.4323851244583</v>
+        <v>258.9936679100862</v>
       </c>
       <c r="R12">
-        <v>2109.891466120125</v>
+        <v>2330.943011190776</v>
       </c>
       <c r="S12">
-        <v>0.003763382460177114</v>
+        <v>0.004640206111204861</v>
       </c>
       <c r="T12">
-        <v>0.003763382460177114</v>
+        <v>0.00464020611120486</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H13">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I13">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J13">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N13">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O13">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P13">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q13">
-        <v>550.0254632353962</v>
+        <v>339.4220583661208</v>
       </c>
       <c r="R13">
-        <v>4950.229169118566</v>
+        <v>3054.798525295087</v>
       </c>
       <c r="S13">
-        <v>0.008829651158870215</v>
+        <v>0.006081184618208461</v>
       </c>
       <c r="T13">
-        <v>0.008829651158870215</v>
+        <v>0.00608118461820846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H14">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I14">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J14">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N14">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O14">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P14">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q14">
-        <v>12147.29825507873</v>
+        <v>10550.12865925705</v>
       </c>
       <c r="R14">
-        <v>109325.6842957086</v>
+        <v>94951.15793331349</v>
       </c>
       <c r="S14">
-        <v>0.1950026194863549</v>
+        <v>0.1890191828770021</v>
       </c>
       <c r="T14">
-        <v>0.195002619486355</v>
+        <v>0.189019182877002</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H15">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I15">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J15">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>143.250945</v>
       </c>
       <c r="O15">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P15">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q15">
-        <v>16794.75142420347</v>
+        <v>13101.10141204389</v>
       </c>
       <c r="R15">
-        <v>151152.7628178313</v>
+        <v>117909.912708395</v>
       </c>
       <c r="S15">
-        <v>0.2696089659256202</v>
+        <v>0.2347231549181562</v>
       </c>
       <c r="T15">
-        <v>0.2696089659256202</v>
+        <v>0.2347231549181562</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H16">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I16">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J16">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N16">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O16">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P16">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q16">
-        <v>4301.160223973966</v>
+        <v>5111.748448640848</v>
       </c>
       <c r="R16">
-        <v>38710.44201576569</v>
+        <v>46005.73603776764</v>
       </c>
       <c r="S16">
-        <v>0.06904724761777938</v>
+        <v>0.09158357647013923</v>
       </c>
       <c r="T16">
-        <v>0.06904724761777938</v>
+        <v>0.09158357647013922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H17">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I17">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J17">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N17">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O17">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P17">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q17">
-        <v>10091.38580996386</v>
+        <v>6699.160617663625</v>
       </c>
       <c r="R17">
-        <v>90822.47228967473</v>
+        <v>60292.44555897263</v>
       </c>
       <c r="S17">
-        <v>0.1619987116367737</v>
+        <v>0.1200241159904245</v>
       </c>
       <c r="T17">
-        <v>0.1619987116367737</v>
+        <v>0.1200241159904245</v>
       </c>
     </row>
   </sheetData>
